--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DON RFFL\Documents\UiPath\WU Practice Automation Task\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F9FF88-CE7F-4A77-B640-5EEA81BFD674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC313D6-F8E1-423A-9793-C60966CF3B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,16 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -166,13 +171,22 @@
   </si>
   <si>
     <t>ParaBank Users</t>
+  </si>
+  <si>
+    <t>Loan Amount</t>
+  </si>
+  <si>
+    <t>StorageBucketName</t>
+  </si>
+  <si>
+    <t>ParaBank User Storage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -194,12 +208,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF464E55"/>
-      <name val="Noto Sans"/>
       <family val="2"/>
     </font>
     <font>
@@ -230,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -241,9 +249,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -282,7 +287,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -292,7 +297,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C62126-AA77-4270-A392-FB5E49774B83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -622,7 +627,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -706,7 +711,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2875,7 +2887,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2923,15 +2935,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3951,7 +3968,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DON RFFL\Documents\UiPath\WU Practice Automation Task\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC313D6-F8E1-423A-9793-C60966CF3B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FF659-2BD5-491F-92BB-19056AB82BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2886,7 +2886,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DON RFFL\Documents\UiPath\WU Practice Automation Task\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FF659-2BD5-491F-92BB-19056AB82BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1980E50A-6C38-4FB4-8DE9-D22DE13860D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="110" yWindow="360" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>ParaBank User Storage</t>
+  </si>
+  <si>
+    <t>MaskReportSensitiveData</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Used to decide if the report should contain plain or masked sensitive data such as CVV, Credit Card</t>
   </si>
 </sst>
 </file>
@@ -626,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -719,7 +728,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2886,7 +2905,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
